--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Company.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Company.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C292AB-9D92-4746-BC00-807DDC24C999}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF740C65-C000-443A-9B3E-1E80662EC9AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="description (รายละเอียด)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,17 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>company_code</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>company_id</t>
   </si>
   <si>
@@ -81,14 +76,96 @@
     <t>sso_max_age</t>
   </si>
   <si>
-    <t>tt</t>
+    <t>สร้างรหัส company
+ความยาวไม่เกิน 5 ตัว</t>
+  </si>
+  <si>
+    <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 200 ตัว</t>
+  </si>
+  <si>
+    <t>ชื่อ ภาษาอังกฤษ ความยาวไม่เกิน 200  ตัว</t>
+  </si>
+  <si>
+    <t>เลขประจำตัวผู้เสียภาษี</t>
+  </si>
+  <si>
+    <t>เลขทะเบียนนิติบุคคล</t>
+  </si>
+  <si>
+    <t>เลขกองทุนสำรองเลี้ยงชีพ</t>
+  </si>
+  <si>
+    <t>เลขประกันสังคม</t>
+  </si>
+  <si>
+    <t>สาขาประกันสังคม</t>
+  </si>
+  <si>
+    <t>ค่าจ้างสูงสุด</t>
+  </si>
+  <si>
+    <t>อายุพนักงานมากสุด</t>
+  </si>
+  <si>
+    <t>ชั่วโมงการทำงาน </t>
+  </si>
+  <si>
+    <t>ค่าจ้างตํ่าสุด </t>
+  </si>
+  <si>
+    <r>
+      <t>อายุพนักงานน้อยสุด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>เลขที่  (null)</t>
+  </si>
+  <si>
+    <t>PSG_0</t>
+  </si>
+  <si>
+    <t>บริษัท พี. เอส. เจนเนอเรชั่น จำกัด</t>
+  </si>
+  <si>
+    <t>P.S. Generation Co., Ltd.</t>
+  </si>
+  <si>
+    <t>0105525028530</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>เลขประกันสังคมสะสม%</t>
+  </si>
+  <si>
+    <t>เลขประกันสังคมสมทบ%</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>1000078027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +186,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -135,12 +218,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -149,7 +247,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -160,6 +258,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -476,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,7 +599,7 @@
     <col min="2" max="2" width="24.453125" customWidth="1"/>
     <col min="3" max="3" width="25.08984375" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" customWidth="1"/>
     <col min="6" max="6" width="25.26953125" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="20.81640625" customWidth="1"/>
@@ -502,98 +613,223 @@
     <col min="16" max="16" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4653D1-A365-4A9B-8402-770AE6E4821A}">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" customWidth="1"/>
+    <col min="5" max="10" width="16.7265625" customWidth="1"/>
+    <col min="11" max="11" width="23.7265625" customWidth="1"/>
+    <col min="12" max="16" width="16.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
+      <c r="P2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="8">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
+      <c r="O3">
+        <v>60</v>
+      </c>
+      <c r="P3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Company.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Company.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF740C65-C000-443A-9B3E-1E80662EC9AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1302330-83C5-472A-99CD-9A62E42622AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     </r>
   </si>
   <si>
-    <t>เลขที่  (null)</t>
-  </si>
-  <si>
     <t>PSG_0</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>1000078027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เลขที่  (null) กรอกเป็นตัวเลขเท่านั้น สามารถเว้นว่างได้ </t>
   </si>
 </sst>
 </file>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4653D1-A365-4A9B-8402-770AE6E4821A}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -690,7 +690,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>16</v>
@@ -708,10 +708,10 @@
         <v>23</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>27</v>
@@ -790,19 +790,19 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="G3" s="8">
         <v>5</v>
@@ -811,16 +811,16 @@
         <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="N3">
         <v>18</v>
